--- a/classfiers/bloated/knn/bloated-knn-results.xlsx
+++ b/classfiers/bloated/knn/bloated-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4102564102564103</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.863986013986014</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7534965034965034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7407407407407408</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9433566433566433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.375</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6136283807516685</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8043956043956044</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6451994301994303</v>
+        <v>0.72</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8348935083181658</v>
+        <v>0.9076923076923077</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/knn/bloated-knn-results.xlsx
+++ b/classfiers/bloated/knn/bloated-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9601990049751244</v>
       </c>
     </row>
     <row r="3">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8413793103448276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8307692307692308</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72</v>
+        <v>0.6993406593406594</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9076923076923077</v>
+        <v>0.9003731343283583</v>
       </c>
     </row>
   </sheetData>
